--- a/dev/Assumptions and data.xlsx
+++ b/dev/Assumptions and data.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\carculator_truck\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\carculator_bus\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40436303-F70B-42E0-B597-07B86F04AA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{F660A75E-F0EB-488E-A727-CFDC76EA02DE}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ICEV engines" sheetId="4" r:id="rId1"/>
     <sheet name="Engines mass" sheetId="9" r:id="rId2"/>
     <sheet name="Electric trucks" sheetId="10" r:id="rId3"/>
     <sheet name="Fuel cell trucks" sheetId="11" r:id="rId4"/>
-    <sheet name="BEV motors" sheetId="3" r:id="rId5"/>
-    <sheet name="BEV chargers" sheetId="2" r:id="rId6"/>
-    <sheet name="Loading factors" sheetId="5" r:id="rId7"/>
-    <sheet name="battery sizing" sheetId="6" r:id="rId8"/>
-    <sheet name="weight composition" sheetId="7" r:id="rId9"/>
-    <sheet name="weight composition of MAN TGX" sheetId="8" r:id="rId10"/>
+    <sheet name="Swiss buses" sheetId="12" r:id="rId5"/>
+    <sheet name="BEV motors" sheetId="3" r:id="rId6"/>
+    <sheet name="BEV chargers" sheetId="2" r:id="rId7"/>
+    <sheet name="Loading factors" sheetId="5" r:id="rId8"/>
+    <sheet name="battery sizing" sheetId="6" r:id="rId9"/>
+    <sheet name="weight composition" sheetId="7" r:id="rId10"/>
+    <sheet name="weight composition of MAN TGX" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="252">
   <si>
     <t>kW</t>
   </si>
@@ -720,19 +720,97 @@
   </si>
   <si>
     <t>https://fuelcelltrucks.eu/project/ups-fuel-cell-electric-class-6-delivery-truck/</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>Citaro</t>
+  </si>
+  <si>
+    <t>Setra</t>
+  </si>
+  <si>
+    <t>Connecto</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>S 319</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Neoplan</t>
+  </si>
+  <si>
+    <t>Cityliner</t>
+  </si>
+  <si>
+    <t>S 417</t>
+  </si>
+  <si>
+    <t>S 416</t>
+  </si>
+  <si>
+    <t>S 417 UL</t>
+  </si>
+  <si>
+    <t>S 415 H</t>
+  </si>
+  <si>
+    <t>Coach, double deck</t>
+  </si>
+  <si>
+    <t>Tourismo</t>
+  </si>
+  <si>
+    <t>Coach</t>
+  </si>
+  <si>
+    <t>S 416 GT-HD</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Pass. Capacity</t>
+  </si>
+  <si>
+    <t>Curb weight</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>S 516 HD</t>
+  </si>
+  <si>
+    <t>S 431 DT</t>
+  </si>
+  <si>
+    <t>S 516+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -919,19 +997,19 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -973,23 +1051,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1008,7 +1086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1018,7 +1096,7 @@
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{23F8724F-132D-4F2C-AC42-207F0D899542}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1099,7 +1177,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1184,7 +1262,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1405,7 +1483,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1443,7 +1521,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1471918991"/>
@@ -1522,7 +1600,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1560,7 +1638,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1478449695"/>
@@ -1601,7 +1679,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1677,7 +1755,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1762,7 +1840,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1899,7 +1977,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1937,7 +2015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1471918991"/>
@@ -2016,7 +2094,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2054,7 +2132,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1478449695"/>
@@ -2095,7 +2173,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2758,7 +2836,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2796,7 +2874,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1081512687"/>
@@ -2875,7 +2953,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2913,7 +2991,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132492911"/>
@@ -2955,12 +3033,13 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2968,7 +3047,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2995,7 +3073,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3076,7 +3154,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3290,7 +3368,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3328,7 +3406,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497924016"/>
@@ -3407,7 +3485,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3445,7 +3523,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="721442448"/>
@@ -3486,7 +3564,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3567,7 +3645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3784,7 +3862,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3822,7 +3900,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497924016"/>
@@ -3901,7 +3979,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3939,7 +4017,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="721442448"/>
@@ -3980,7 +4058,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4061,7 +4139,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4293,7 +4371,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4331,7 +4409,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="497924016"/>
@@ -4410,7 +4488,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4448,7 +4526,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="721442448"/>
@@ -4489,7 +4567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4565,7 +4643,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4639,7 +4717,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4782,7 +4860,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4820,7 +4898,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1471918991"/>
@@ -4899,7 +4977,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4937,7 +5015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1478449695"/>
@@ -4978,7 +5056,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5073,7 +5151,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5181,7 +5259,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1471918991"/>
@@ -5243,7 +5321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1478449695"/>
@@ -5284,7 +5362,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5360,7 +5438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5434,7 +5512,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5572,7 +5650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="741568848"/>
@@ -5634,7 +5712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="792583024"/>
@@ -5651,6 +5729,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5658,7 +5737,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5682,7 +5760,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11359,21 +11437,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40BBB6-5CB6-4687-8C18-59866161D37E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11381,12 +11459,12 @@
         <v>0.74570000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11445,7 +11523,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -11504,7 +11582,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -11563,12 +11641,12 @@
         <v>930</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -11585,7 +11663,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11602,7 +11680,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -11626,24 +11704,1070 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FC2BC-0260-479C-B829-BE720EA95DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6">
+        <v>3500</v>
+      </c>
+      <c r="G6">
+        <v>7500</v>
+      </c>
+      <c r="H6" s="34">
+        <v>12000</v>
+      </c>
+      <c r="I6">
+        <v>18000</v>
+      </c>
+      <c r="J6">
+        <v>26000</v>
+      </c>
+      <c r="K6" s="34">
+        <v>40000</v>
+      </c>
+      <c r="L6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="8">
+        <f>H7*$F$6/$H$6</f>
+        <v>151.08333333333334</v>
+      </c>
+      <c r="G7" s="8">
+        <f>H7*$G$6/$H$6</f>
+        <v>323.75</v>
+      </c>
+      <c r="H7" s="35">
+        <v>518</v>
+      </c>
+      <c r="I7" s="8">
+        <f>H7*$I$6/$H$6</f>
+        <v>777</v>
+      </c>
+      <c r="J7" s="8">
+        <f>H7*$J$6/$H$6</f>
+        <v>1122.3333333333333</v>
+      </c>
+      <c r="K7" s="35">
+        <v>1124</v>
+      </c>
+      <c r="L7" s="8">
+        <f>K7*$L$6/$K$6</f>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F19" si="0">H8*$F$6/$H$6</f>
+        <v>10.791666666666666</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" ref="G8:G19" si="1">H8*$G$6/$H$6</f>
+        <v>23.125</v>
+      </c>
+      <c r="H8" s="35">
+        <v>37</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" ref="I8:I18" si="2">H8*$I$6/$H$6</f>
+        <v>55.5</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" ref="J8:J17" si="3">H8*$J$6/$H$6</f>
+        <v>80.166666666666671</v>
+      </c>
+      <c r="K8" s="35">
+        <v>140</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" ref="L8:L19" si="4">K8*$L$6/$K$6</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>13.708333333333334</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>29.375</v>
+      </c>
+      <c r="H9" s="35">
+        <v>47</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="2"/>
+        <v>70.5</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="3"/>
+        <v>101.83333333333333</v>
+      </c>
+      <c r="K9" s="35">
+        <v>80</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+      <c r="H10" s="35">
+        <v>150</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="K10" s="35">
+        <v>220</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>82.541666666666671</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>176.875</v>
+      </c>
+      <c r="H11" s="35">
+        <v>283</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="2"/>
+        <v>424.5</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="3"/>
+        <v>613.16666666666663</v>
+      </c>
+      <c r="K11" s="35">
+        <v>558</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="4"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>24.208333333333332</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="1"/>
+        <v>51.875</v>
+      </c>
+      <c r="H12" s="35">
+        <v>83</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="2"/>
+        <v>124.5</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="3"/>
+        <v>179.83333333333334</v>
+      </c>
+      <c r="K12" s="35">
+        <v>265</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="4"/>
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>119.58333333333333</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>256.25</v>
+      </c>
+      <c r="H13" s="35">
+        <v>410</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="2"/>
+        <v>615</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="3"/>
+        <v>888.33333333333337</v>
+      </c>
+      <c r="K13" s="35">
+        <v>3439</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="4"/>
+        <v>5158.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>310.33333333333331</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="1"/>
+        <v>665</v>
+      </c>
+      <c r="H14" s="35">
+        <v>1064</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="2"/>
+        <v>1596</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2000</v>
+      </c>
+      <c r="K14" s="35">
+        <v>2656</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="4"/>
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>24.208333333333332</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
+        <v>51.875</v>
+      </c>
+      <c r="H15" s="35">
+        <v>83</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="2"/>
+        <v>124.5</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="3"/>
+        <v>179.83333333333334</v>
+      </c>
+      <c r="K15" s="35">
+        <v>784</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="4"/>
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>193.95833333333334</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="1"/>
+        <v>415.625</v>
+      </c>
+      <c r="H16" s="35">
+        <v>665</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="2"/>
+        <v>997.5</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1100</v>
+      </c>
+      <c r="K16" s="35">
+        <v>1422</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="4"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="35">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="H18" s="35">
+        <v>600</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="35">
+        <v>1153</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="4"/>
+        <v>1729.5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>659.16666666666663</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="1"/>
+        <v>1412.5</v>
+      </c>
+      <c r="H19" s="35">
+        <v>2260</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2300</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K19" s="35">
+        <v>2700</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="4"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:L20" si="5">SUM(F7:F19)</f>
+        <v>1808.3333333333335</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="5"/>
+        <v>3875</v>
+      </c>
+      <c r="H20" s="35">
+        <f t="shared" si="5"/>
+        <v>6200</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="5"/>
+        <v>8210</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="5"/>
+        <v>10090.5</v>
+      </c>
+      <c r="K20" s="35">
+        <f t="shared" si="5"/>
+        <v>14541</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="5"/>
+        <v>21811.5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:L21" si="6">F6-F20</f>
+        <v>1691.6666666666665</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="6"/>
+        <v>3625</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="6"/>
+        <v>5800</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="6"/>
+        <v>9790</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="6"/>
+        <v>15909.5</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="6"/>
+        <v>25459</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="6"/>
+        <v>38188.5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="8">
+        <f>F20-F29</f>
+        <v>495.83333333333348</v>
+      </c>
+      <c r="G22" s="8">
+        <f>G20-G29</f>
+        <v>1062.5</v>
+      </c>
+      <c r="H22" s="8">
+        <f>H20-H29</f>
+        <v>1700</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" ref="I22:J22" si="7">I20-I29</f>
+        <v>3210</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="7"/>
+        <v>4090.5</v>
+      </c>
+      <c r="K22" s="35">
+        <f>K20-7050</f>
+        <v>7491</v>
+      </c>
+      <c r="L22" s="39">
+        <f>L20-7050</f>
+        <v>14761.5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" ref="F23:K23" si="8">F22/F20</f>
+        <v>0.27419354838709681</v>
+      </c>
+      <c r="G23" s="38">
+        <f t="shared" si="8"/>
+        <v>0.27419354838709675</v>
+      </c>
+      <c r="H23" s="38">
+        <f t="shared" si="8"/>
+        <v>0.27419354838709675</v>
+      </c>
+      <c r="I23" s="38">
+        <f t="shared" si="8"/>
+        <v>0.39098660170523752</v>
+      </c>
+      <c r="J23" s="38">
+        <f t="shared" si="8"/>
+        <v>0.40538129924186117</v>
+      </c>
+      <c r="K23" s="38">
+        <f t="shared" si="8"/>
+        <v>0.51516401898081288</v>
+      </c>
+      <c r="L23" s="38">
+        <f>L22/L20</f>
+        <v>0.67677601265387521</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="41">
+        <f t="shared" ref="F24:H28" si="9">$K24*F$22/$K$22</f>
+        <v>171.10254527655414</v>
+      </c>
+      <c r="G24" s="41">
+        <f t="shared" si="9"/>
+        <v>366.64831130690163</v>
+      </c>
+      <c r="H24" s="41">
+        <f t="shared" si="9"/>
+        <v>586.63729809104257</v>
+      </c>
+      <c r="I24" s="41">
+        <f>$K24*I$22/$K$22</f>
+        <v>1107.7092511013216</v>
+      </c>
+      <c r="J24" s="41">
+        <f>$K24*J$22/$K$22</f>
+        <v>1411.5528634361233</v>
+      </c>
+      <c r="K24" s="41">
+        <f>K13-854</f>
+        <v>2585</v>
+      </c>
+      <c r="L24" s="41">
+        <f>K24*$L$22/$K$22</f>
+        <v>5093.9096916299559</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="41">
+        <f t="shared" si="9"/>
+        <v>69.89720998531574</v>
+      </c>
+      <c r="G25" s="41">
+        <f t="shared" si="9"/>
+        <v>149.77973568281939</v>
+      </c>
+      <c r="H25" s="41">
+        <f t="shared" si="9"/>
+        <v>239.647577092511</v>
+      </c>
+      <c r="I25" s="41">
+        <f t="shared" ref="I25:I28" si="10">$K25*I$22/$K$22</f>
+        <v>452.51101321585901</v>
+      </c>
+      <c r="J25" s="41">
+        <f t="shared" ref="J25:J28" si="11">$K25*J$22/$K$22</f>
+        <v>576.63436123348015</v>
+      </c>
+      <c r="K25" s="41">
+        <f>K14-1600</f>
+        <v>1056</v>
+      </c>
+      <c r="L25" s="41">
+        <f t="shared" ref="L25:L28" si="12">K25*$L$22/$K$22</f>
+        <v>2080.9162995594716</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="41">
+        <f t="shared" si="9"/>
+        <v>50.503381835980967</v>
+      </c>
+      <c r="G26" s="41">
+        <f t="shared" si="9"/>
+        <v>108.22153250567348</v>
+      </c>
+      <c r="H26" s="41">
+        <f t="shared" si="9"/>
+        <v>173.15445200907757</v>
+      </c>
+      <c r="I26" s="41">
+        <f t="shared" si="10"/>
+        <v>326.95634761714058</v>
+      </c>
+      <c r="J26" s="41">
+        <f t="shared" si="11"/>
+        <v>416.64016820184219</v>
+      </c>
+      <c r="K26" s="41">
+        <f>K16-659</f>
+        <v>763</v>
+      </c>
+      <c r="L26" s="41">
+        <f t="shared" si="12"/>
+        <v>1503.5408490188227</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="41">
+        <f t="shared" si="9"/>
+        <v>26.733603832840483</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" si="9"/>
+        <v>57.286293927515295</v>
+      </c>
+      <c r="H27" s="41">
+        <f t="shared" si="9"/>
+        <v>91.658070284024475</v>
+      </c>
+      <c r="I27" s="41">
+        <f t="shared" si="10"/>
+        <v>173.07200330101091</v>
+      </c>
+      <c r="J27" s="41">
+        <f t="shared" si="11"/>
+        <v>220.54549205694244</v>
+      </c>
+      <c r="K27" s="41">
+        <f>K15*K23</f>
+        <v>403.88859088095728</v>
+      </c>
+      <c r="L27" s="41">
+        <f t="shared" si="12"/>
+        <v>795.88859088095717</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="41">
+        <f t="shared" si="9"/>
+        <v>178.71445734881866</v>
+      </c>
+      <c r="G28" s="41">
+        <f t="shared" si="9"/>
+        <v>382.95955146175413</v>
+      </c>
+      <c r="H28" s="41">
+        <f t="shared" si="9"/>
+        <v>612.73528233880654</v>
+      </c>
+      <c r="I28" s="41">
+        <f t="shared" si="10"/>
+        <v>1156.988386063276</v>
+      </c>
+      <c r="J28" s="41">
+        <f t="shared" si="11"/>
+        <v>1474.3492190628754</v>
+      </c>
+      <c r="K28" s="41">
+        <f>K19</f>
+        <v>2700</v>
+      </c>
+      <c r="L28" s="41">
+        <f t="shared" si="12"/>
+        <v>5320.5246295554662</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="8">
+        <f>H29*$F$6/$H$6</f>
+        <v>1312.5</v>
+      </c>
+      <c r="G29" s="8">
+        <f>H29*$G$6/$H$6</f>
+        <v>2812.5</v>
+      </c>
+      <c r="H29" s="34">
+        <v>4500</v>
+      </c>
+      <c r="I29" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J29" s="8">
+        <v>6000</v>
+      </c>
+      <c r="K29" s="35">
+        <f>K20-K22</f>
+        <v>7050</v>
+      </c>
+      <c r="L29" s="39">
+        <f>L20-L22</f>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="8">
+        <f>SUM(F12:F19)</f>
+        <v>1506.4583333333333</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" ref="G31:L31" si="13">SUM(G12:G19)</f>
+        <v>3228.125</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="13"/>
+        <v>5165</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="13"/>
+        <v>6657.5</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="13"/>
+        <v>7848</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="13"/>
+        <v>12419</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="13"/>
+        <v>18628.5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="8">
+        <f>SUM(F11)</f>
+        <v>82.541666666666671</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" ref="G32:L32" si="14">SUM(G11)</f>
+        <v>176.875</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="14"/>
+        <v>283</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="14"/>
+        <v>424.5</v>
+      </c>
+      <c r="J32" s="8">
+        <f t="shared" si="14"/>
+        <v>613.16666666666663</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="14"/>
+        <v>558</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="14"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="8">
+        <f>F7</f>
+        <v>151.08333333333334</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" ref="G33:L33" si="15">G7</f>
+        <v>323.75</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="15"/>
+        <v>518</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="15"/>
+        <v>777</v>
+      </c>
+      <c r="J33" s="8">
+        <f t="shared" si="15"/>
+        <v>1122.3333333333333</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="15"/>
+        <v>1124</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="15"/>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="L34" s="36"/>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36">
+        <v>0.16</v>
+      </c>
+      <c r="L35" s="36"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="L36" s="36"/>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37">
+        <v>1.9</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37">
+        <v>6.3</v>
+      </c>
+      <c r="L39" s="37"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37">
+        <v>34.5</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37">
+        <v>39.9</v>
+      </c>
+      <c r="L40" s="37"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>137</v>
       </c>
@@ -11657,7 +12781,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>141</v>
       </c>
@@ -11671,7 +12795,7 @@
         <v>1200.6405999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>108</v>
       </c>
@@ -11685,7 +12809,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>142</v>
       </c>
@@ -11699,7 +12823,7 @@
         <v>1386.68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>143</v>
       </c>
@@ -11713,7 +12837,7 @@
         <v>658.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>144</v>
       </c>
@@ -11727,7 +12851,7 @@
         <v>551.65646036082637</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>145</v>
       </c>
@@ -11741,7 +12865,7 @@
         <v>252.9250385</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>146</v>
       </c>
@@ -11755,7 +12879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>107</v>
       </c>
@@ -11769,7 +12893,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>100</v>
       </c>
@@ -11783,7 +12907,7 @@
         <v>861.60000010000022</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>147</v>
       </c>
@@ -11803,16 +12927,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0034D5-0E96-4432-87E8-82D8AB21A353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="5:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:24" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>6</v>
       </c>
@@ -11871,7 +12995,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="5:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:24" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>0</v>
       </c>
@@ -11930,7 +13054,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="5:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>165</v>
       </c>
@@ -11992,7 +13116,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="10" spans="5:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:24" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>0</v>
       </c>
@@ -12009,7 +13133,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="5:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>166</v>
       </c>
@@ -12029,17 +13153,17 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="12" spans="5:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:24" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="5:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:24" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>0</v>
       </c>
@@ -12125,7 +13249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="4:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>167</v>
       </c>
@@ -12184,7 +13308,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="24" spans="4:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>168</v>
       </c>
@@ -12201,7 +13325,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="25" spans="4:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>169</v>
       </c>
@@ -12228,27 +13352,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2F0CF6-DD36-4F84-862B-ADCA2CD5B077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>170</v>
       </c>
@@ -12280,7 +13404,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -12311,7 +13435,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -12342,7 +13466,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -12376,7 +13500,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -12410,7 +13534,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -12438,7 +13562,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -12472,7 +13596,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -12506,7 +13630,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -12537,7 +13661,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -12568,7 +13692,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -12599,7 +13723,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -12627,7 +13751,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>186</v>
       </c>
@@ -12654,7 +13778,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>199</v>
       </c>
@@ -12690,19 +13814,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{4FC1C520-DB7D-4E39-AC58-5C06EDF88596}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{957B8BE9-77F2-45C7-8440-54BA42D3BD21}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{77FE3416-D878-4588-AE98-2C3F9AE858EF}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{CB0AE9A7-FC0F-4C7F-84A2-34567441D1C8}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{FE7BE52E-7806-405C-A8A0-B608D5E293C9}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{F4A33432-5ABC-4197-9A05-E18AF4E9ACA6}"/>
-    <hyperlink ref="J8" r:id="rId7" xr:uid="{5812977D-41FC-4FE5-9417-773D7573F9E2}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{508EFF3E-94DE-42FE-8D93-FF110947A992}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{DB1B6E89-AC91-41E7-8E46-0B1D1D3718D7}"/>
-    <hyperlink ref="J11" r:id="rId10" xr:uid="{7A2C0A0D-B28E-4BBF-B93D-2A3CD07DF60F}"/>
-    <hyperlink ref="J12" r:id="rId11" xr:uid="{4EA14EA4-606A-4CBF-856A-EB098A74EE1E}"/>
-    <hyperlink ref="J13" r:id="rId12" xr:uid="{5C72ED48-2BA8-43A3-806C-58F78E5FACFD}"/>
-    <hyperlink ref="J14" r:id="rId13" xr:uid="{3DBC9343-934F-4D2B-8107-B23B7EE8D0A7}"/>
+    <hyperlink ref="J3" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="J10" r:id="rId9"/>
+    <hyperlink ref="J11" r:id="rId10"/>
+    <hyperlink ref="J12" r:id="rId11"/>
+    <hyperlink ref="J13" r:id="rId12"/>
+    <hyperlink ref="J14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
@@ -12711,27 +13835,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BBDD29-B13E-4593-BD51-713525CDE8CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>170</v>
       </c>
@@ -12769,7 +13893,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -12777,7 +13901,7 @@
         <v>205</v>
       </c>
       <c r="C2" t="str">
-        <f>A2&amp;" - "&amp;B2</f>
+        <f t="shared" ref="C2:C8" si="0">A2&amp;" - "&amp;B2</f>
         <v>MAN - TGS 18.320</v>
       </c>
       <c r="D2">
@@ -12799,14 +13923,14 @@
         <v>375</v>
       </c>
       <c r="K2" s="56">
-        <f>(G2/J2)*120/3.6</f>
+        <f t="shared" ref="K2:K8" si="1">(G2/J2)*120/3.6</f>
         <v>2.7555555555555555</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -12814,7 +13938,7 @@
         <v>210</v>
       </c>
       <c r="C3" t="str">
-        <f>A3&amp;" - "&amp;B3</f>
+        <f t="shared" si="0"/>
         <v>Hyundai - Xcient</v>
       </c>
       <c r="D3">
@@ -12836,14 +13960,14 @@
         <v>400</v>
       </c>
       <c r="K3" s="56">
-        <f>(G3/J3)*120/3.6</f>
+        <f t="shared" si="1"/>
         <v>2.875</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -12851,7 +13975,7 @@
         <v>212</v>
       </c>
       <c r="C4" t="str">
-        <f>A4&amp;" - "&amp;B4</f>
+        <f t="shared" si="0"/>
         <v>Renault - Maxity H2</v>
       </c>
       <c r="D4">
@@ -12873,14 +13997,14 @@
         <v>200</v>
       </c>
       <c r="K4" s="56">
-        <f>(G4/J4)*120/3.6</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>215</v>
       </c>
@@ -12888,7 +14012,7 @@
         <v>216</v>
       </c>
       <c r="C5" t="str">
-        <f>A5&amp;" - "&amp;B5</f>
+        <f t="shared" si="0"/>
         <v>VDL - H2-Share</v>
       </c>
       <c r="D5">
@@ -12910,19 +14034,19 @@
         <v>400</v>
       </c>
       <c r="K5" s="56">
-        <f>(G5/J5)*120/3.6</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>218</v>
       </c>
       <c r="C6" t="str">
-        <f>A6&amp;" - "&amp;B6</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Scania - </v>
       </c>
       <c r="D6">
@@ -12944,14 +14068,14 @@
         <v>400</v>
       </c>
       <c r="K6" s="56">
-        <f>(G6/J6)*120/3.6</f>
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -12959,7 +14083,7 @@
         <v>221</v>
       </c>
       <c r="C7" t="str">
-        <f>A7&amp;" - "&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>Kenworth - T680</v>
       </c>
       <c r="D7">
@@ -12981,14 +14105,14 @@
         <v>320</v>
       </c>
       <c r="K7" s="56">
-        <f>(G7/J7)*120/3.6</f>
+        <f t="shared" si="1"/>
         <v>3.125</v>
       </c>
       <c r="L7" s="33" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -12996,7 +14120,7 @@
         <v>224</v>
       </c>
       <c r="C8" t="str">
-        <f>A8&amp;" - "&amp;B8</f>
+        <f t="shared" si="0"/>
         <v>UPS - H2 truck</v>
       </c>
       <c r="D8">
@@ -13015,7 +14139,7 @@
         <v>200</v>
       </c>
       <c r="K8" s="56">
-        <f>(G8/J8)*120/3.6</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="L8" s="33" t="s">
@@ -13024,32 +14148,411 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{BDA6660D-1FFF-4AC7-9389-60D4FE225A06}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{E1A40A00-8A48-49A9-81D8-ADD695321E9C}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{0FDFE722-7329-45E7-AF4B-44F07581D2ED}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{F07E4F1F-89C7-41F1-A042-D51B3A6A0275}"/>
-    <hyperlink ref="L6" r:id="rId5" xr:uid="{5497A739-B59B-4DA5-BBE5-91F15FD99CC8}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{A22B8DDC-C9B8-45F3-AAA3-7D3316158540}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{D881F3A4-ED3B-4745-9035-78644E7397D6}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAA48E6-6FBC-4037-9765-43E39D0C1CF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G5:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6">
+        <v>12135</v>
+      </c>
+      <c r="K6">
+        <v>3130</v>
+      </c>
+      <c r="L6">
+        <v>2550</v>
+      </c>
+      <c r="M6">
+        <v>105</v>
+      </c>
+      <c r="O6">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="7" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7">
+        <v>13115</v>
+      </c>
+      <c r="K7">
+        <v>3770</v>
+      </c>
+      <c r="L7">
+        <v>2550</v>
+      </c>
+      <c r="M7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8">
+        <v>12134</v>
+      </c>
+      <c r="K8">
+        <v>3120</v>
+      </c>
+      <c r="L8">
+        <v>2550</v>
+      </c>
+      <c r="M8">
+        <v>101</v>
+      </c>
+      <c r="O8">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="9" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9">
+        <v>14950</v>
+      </c>
+      <c r="K9">
+        <v>3200</v>
+      </c>
+      <c r="L9">
+        <v>2550</v>
+      </c>
+      <c r="M9">
+        <v>59</v>
+      </c>
+      <c r="O9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10">
+        <v>14000</v>
+      </c>
+      <c r="K10">
+        <v>4000</v>
+      </c>
+      <c r="L10">
+        <v>2550</v>
+      </c>
+      <c r="M10">
+        <v>69</v>
+      </c>
+      <c r="O10">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="11" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12">
+        <v>13040</v>
+      </c>
+      <c r="K12">
+        <v>3240</v>
+      </c>
+      <c r="L12">
+        <v>2550</v>
+      </c>
+      <c r="M12">
+        <v>57</v>
+      </c>
+      <c r="O12">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="13" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13">
+        <v>14050</v>
+      </c>
+      <c r="K13">
+        <v>3175</v>
+      </c>
+      <c r="L13">
+        <v>2550</v>
+      </c>
+      <c r="M13">
+        <v>61</v>
+      </c>
+      <c r="O13">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="14" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14">
+        <v>12200</v>
+      </c>
+      <c r="K14">
+        <v>3175</v>
+      </c>
+      <c r="L14">
+        <v>2550</v>
+      </c>
+      <c r="M14">
+        <v>53</v>
+      </c>
+      <c r="N14">
+        <v>13025</v>
+      </c>
+      <c r="O14">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="15" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J15">
+        <v>13115</v>
+      </c>
+      <c r="K15">
+        <v>3770</v>
+      </c>
+      <c r="L15">
+        <v>2550</v>
+      </c>
+      <c r="M15">
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <v>13500</v>
+      </c>
+      <c r="O15">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" t="s">
+        <v>250</v>
+      </c>
+      <c r="I16" t="s">
+        <v>240</v>
+      </c>
+      <c r="J16">
+        <v>13890</v>
+      </c>
+      <c r="K16">
+        <v>4000</v>
+      </c>
+      <c r="L16">
+        <v>2550</v>
+      </c>
+      <c r="M16">
+        <v>78</v>
+      </c>
+      <c r="N16">
+        <v>19000</v>
+      </c>
+      <c r="O16">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17">
+        <v>12925</v>
+      </c>
+      <c r="K17">
+        <v>3680</v>
+      </c>
+      <c r="L17">
+        <v>2550</v>
+      </c>
+      <c r="M17">
+        <v>51</v>
+      </c>
+      <c r="O17">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J18">
+        <v>13020</v>
+      </c>
+      <c r="K18">
+        <v>3620</v>
+      </c>
+      <c r="L18">
+        <v>2550</v>
+      </c>
+      <c r="M18">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -13069,7 +14572,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -13089,7 +14592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -13107,62 +14610,6 @@
       </c>
       <c r="F8">
         <v>36.299999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF3029B-9326-4F69-86DA-8B9EBC0E2EEA}">
-  <dimension ref="A2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>9.5</v>
-      </c>
-      <c r="C4">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <f>B4/B3</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <f>C4/C3</f>
-        <v>7.3113207547169809E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13172,25 +14619,81 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F5CD19-7EDF-484E-B634-E6A3A4765665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>9.5</v>
+      </c>
+      <c r="C4">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>B4/B3</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C4/C3</f>
+        <v>7.3113207547169809E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6">
         <v>2011</v>
@@ -13217,7 +14720,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -13246,7 +14749,7 @@
         <v>18752</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -13283,7 +14786,7 @@
         <v>65632</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -13320,7 +14823,7 @@
         <v>79696</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -13357,7 +14860,7 @@
         <v>178144</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -13386,7 +14889,7 @@
         <v>66239</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -13423,7 +14926,7 @@
         <v>1.0092485372988786</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -13460,7 +14963,7 @@
         <v>0.8311458542461353</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -13497,7 +15000,7 @@
         <v>0.37182840847853421</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -13526,7 +15029,7 @@
         <v>231049</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -13563,15 +15066,15 @@
         <v>81.160273361927551</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>2011</v>
@@ -13596,7 +15099,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -13623,7 +15126,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -13657,7 +15160,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -13691,7 +15194,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -13725,7 +15228,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -13752,7 +15255,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -13786,7 +15289,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -13820,7 +15323,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -13854,7 +15357,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>21</v>
       </c>
@@ -13881,7 +15384,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -13915,12 +15418,12 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6">
         <v>2011</v>
@@ -13947,7 +15450,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -13976,7 +15479,7 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -14013,7 +15516,7 @@
         <v>148168.79999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -14050,7 +15553,7 @@
         <v>170964</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -14087,7 +15590,7 @@
         <v>194709</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -14116,7 +15619,7 @@
         <v>109066</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -14153,7 +15656,7 @@
         <v>0.73609288865132205</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -14190,7 +15693,7 @@
         <v>0.6379471701644791</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -14227,7 +15730,7 @@
         <v>0.56014873477856697</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
@@ -14256,7 +15759,7 @@
         <v>116617</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
@@ -14293,12 +15796,12 @@
         <v>81.446101340284869</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6">
         <v>2011</v>
@@ -14325,7 +15828,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -14346,7 +15849,7 @@
         <v>37290</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -14371,7 +15874,7 @@
         <v>768174</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -14396,7 +15899,7 @@
         <v>857670</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -14421,7 +15924,7 @@
         <v>950895</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -14442,7 +15945,7 @@
         <v>625507</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -14467,7 +15970,7 @@
         <v>0.81427775477951614</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>13</v>
       </c>
@@ -14492,7 +15995,7 @@
         <v>0.72930964123730568</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
@@ -14517,7 +16020,7 @@
         <v>0.65780869601796199</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>21</v>
       </c>
@@ -14538,7 +16041,7 @@
         <v>168384</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>22</v>
       </c>
@@ -14568,23 +16071,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A623FB1F-4F87-4380-9B25-A6E816584076}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -14601,7 +16104,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -14623,7 +16126,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="26"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -14645,7 +16148,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -14653,7 +16156,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -14673,7 +16176,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -14693,7 +16196,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -14713,7 +16216,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -14733,7 +16236,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -14753,7 +16256,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -14773,13 +16276,13 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -14799,7 +16302,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -14819,7 +16322,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -14839,7 +16342,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -14859,7 +16362,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -14879,7 +16382,7 @@
         <v>25300</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -14899,13 +16402,13 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -14929,7 +16432,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -14953,7 +16456,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -14977,7 +16480,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -15001,7 +16504,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -15025,7 +16528,7 @@
         <v>14700</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -15049,13 +16552,13 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -15079,7 +16582,7 @@
         <v>2076.9097222222222</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -15103,7 +16606,7 @@
         <v>4225.5208333333339</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -15127,7 +16630,7 @@
         <v>9850</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -15151,7 +16654,7 @@
         <v>14211.111111111111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -15175,7 +16678,7 @@
         <v>20255.555555555555</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -15199,13 +16702,13 @@
         <v>30333.333333333336</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -15225,7 +16728,7 @@
         <v>0.1579861111111111</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -15245,7 +16748,7 @@
         <v>0.33854166666666669</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -15265,7 +16768,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -15285,7 +16788,7 @@
         <v>1.1736111111111112</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -15305,7 +16808,7 @@
         <v>1.8055555555555556</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -15325,13 +16828,13 @@
         <v>2.7083333333333335</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -15352,7 +16855,7 @@
       </c>
       <c r="H40" s="24"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -15373,7 +16876,7 @@
       </c>
       <c r="H41" s="24"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -15394,7 +16897,7 @@
       </c>
       <c r="H42" s="24"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -15415,7 +16918,7 @@
       </c>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -15436,7 +16939,7 @@
       </c>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -15457,13 +16960,13 @@
       </c>
       <c r="H45" s="24"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -15487,7 +16990,7 @@
         <v>39.496527777777779</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -15511,7 +17014,7 @@
         <v>84.635416666666671</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -15535,7 +17038,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -15559,7 +17062,7 @@
         <v>938.88888888888891</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -15583,7 +17086,7 @@
         <v>1444.4444444444446</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -15607,13 +17110,13 @@
         <v>2166.666666666667</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -15637,7 +17140,7 @@
         <v>151.90972222222223</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -15661,7 +17164,7 @@
         <v>325.52083333333331</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -15685,7 +17188,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -15709,7 +17212,7 @@
         <v>3611.1111111111109</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -15733,7 +17236,7 @@
         <v>5555.5555555555557</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -15757,13 +17260,13 @@
         <v>8333.3333333333339</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -15787,7 +17290,7 @@
         <v>1423.0902777777778</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -15811,7 +17314,7 @@
         <v>3274.4791666666665</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -15835,7 +17338,7 @@
         <v>8150</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -15859,7 +17362,7 @@
         <v>11788.888888888889</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -15883,7 +17386,7 @@
         <v>19744.444444444445</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -15910,1050 +17413,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC8F20-42EB-4BE3-A713-D92C184011E3}">
-  <dimension ref="A1:L40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="18.6328125" customWidth="1"/>
-    <col min="11" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="52" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D6" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6">
-        <v>3500</v>
-      </c>
-      <c r="G6">
-        <v>7500</v>
-      </c>
-      <c r="H6" s="34">
-        <v>12000</v>
-      </c>
-      <c r="I6">
-        <v>18000</v>
-      </c>
-      <c r="J6">
-        <v>26000</v>
-      </c>
-      <c r="K6" s="34">
-        <v>40000</v>
-      </c>
-      <c r="L6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="8">
-        <f>H7*$F$6/$H$6</f>
-        <v>151.08333333333334</v>
-      </c>
-      <c r="G7" s="8">
-        <f>H7*$G$6/$H$6</f>
-        <v>323.75</v>
-      </c>
-      <c r="H7" s="35">
-        <v>518</v>
-      </c>
-      <c r="I7" s="8">
-        <f>H7*$I$6/$H$6</f>
-        <v>777</v>
-      </c>
-      <c r="J7" s="8">
-        <f>H7*$J$6/$H$6</f>
-        <v>1122.3333333333333</v>
-      </c>
-      <c r="K7" s="35">
-        <v>1124</v>
-      </c>
-      <c r="L7" s="8">
-        <f>K7*$L$6/$K$6</f>
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" ref="F8:F19" si="0">H8*$F$6/$H$6</f>
-        <v>10.791666666666666</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" ref="G8:G19" si="1">H8*$G$6/$H$6</f>
-        <v>23.125</v>
-      </c>
-      <c r="H8" s="35">
-        <v>37</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" ref="I8:I18" si="2">H8*$I$6/$H$6</f>
-        <v>55.5</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" ref="J8:J17" si="3">H8*$J$6/$H$6</f>
-        <v>80.166666666666671</v>
-      </c>
-      <c r="K8" s="35">
-        <v>140</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" ref="L8:L19" si="4">K8*$L$6/$K$6</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>13.708333333333334</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="1"/>
-        <v>29.375</v>
-      </c>
-      <c r="H9" s="35">
-        <v>47</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="2"/>
-        <v>70.5</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="3"/>
-        <v>101.83333333333333</v>
-      </c>
-      <c r="K9" s="35">
-        <v>80</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>43.75</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>93.75</v>
-      </c>
-      <c r="H10" s="35">
-        <v>150</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="3"/>
-        <v>325</v>
-      </c>
-      <c r="K10" s="35">
-        <v>220</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="4"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>82.541666666666671</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="1"/>
-        <v>176.875</v>
-      </c>
-      <c r="H11" s="35">
-        <v>283</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="2"/>
-        <v>424.5</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="3"/>
-        <v>613.16666666666663</v>
-      </c>
-      <c r="K11" s="35">
-        <v>558</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="4"/>
-        <v>837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>24.208333333333332</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="1"/>
-        <v>51.875</v>
-      </c>
-      <c r="H12" s="35">
-        <v>83</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="2"/>
-        <v>124.5</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="3"/>
-        <v>179.83333333333334</v>
-      </c>
-      <c r="K12" s="35">
-        <v>265</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="4"/>
-        <v>397.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>119.58333333333333</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="1"/>
-        <v>256.25</v>
-      </c>
-      <c r="H13" s="35">
-        <v>410</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="2"/>
-        <v>615</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="3"/>
-        <v>888.33333333333337</v>
-      </c>
-      <c r="K13" s="35">
-        <v>3439</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="4"/>
-        <v>5158.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>310.33333333333331</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="1"/>
-        <v>665</v>
-      </c>
-      <c r="H14" s="35">
-        <v>1064</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="2"/>
-        <v>1596</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2000</v>
-      </c>
-      <c r="K14" s="35">
-        <v>2656</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="4"/>
-        <v>3984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>24.208333333333332</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="1"/>
-        <v>51.875</v>
-      </c>
-      <c r="H15" s="35">
-        <v>83</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="2"/>
-        <v>124.5</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="3"/>
-        <v>179.83333333333334</v>
-      </c>
-      <c r="K15" s="35">
-        <v>784</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="4"/>
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>193.95833333333334</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="1"/>
-        <v>415.625</v>
-      </c>
-      <c r="H16" s="35">
-        <v>665</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="2"/>
-        <v>997.5</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1100</v>
-      </c>
-      <c r="K16" s="35">
-        <v>1422</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="4"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="35">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="E18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="H18" s="35">
-        <v>600</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K18" s="35">
-        <v>1153</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="4"/>
-        <v>1729.5</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="0"/>
-        <v>659.16666666666663</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="1"/>
-        <v>1412.5</v>
-      </c>
-      <c r="H19" s="35">
-        <v>2260</v>
-      </c>
-      <c r="I19" s="8">
-        <v>2300</v>
-      </c>
-      <c r="J19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K19" s="35">
-        <v>2700</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="4"/>
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:L20" si="5">SUM(F7:F19)</f>
-        <v>1808.3333333333335</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="5"/>
-        <v>3875</v>
-      </c>
-      <c r="H20" s="35">
-        <f t="shared" si="5"/>
-        <v>6200</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="5"/>
-        <v>8210</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="5"/>
-        <v>10090.5</v>
-      </c>
-      <c r="K20" s="35">
-        <f t="shared" si="5"/>
-        <v>14541</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="5"/>
-        <v>21811.5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" ref="F21:L21" si="6">F6-F20</f>
-        <v>1691.6666666666665</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="6"/>
-        <v>3625</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="6"/>
-        <v>5800</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="6"/>
-        <v>9790</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="6"/>
-        <v>15909.5</v>
-      </c>
-      <c r="K21" s="8">
-        <f t="shared" si="6"/>
-        <v>25459</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" si="6"/>
-        <v>38188.5</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="8">
-        <f>F20-F29</f>
-        <v>495.83333333333348</v>
-      </c>
-      <c r="G22" s="8">
-        <f>G20-G29</f>
-        <v>1062.5</v>
-      </c>
-      <c r="H22" s="8">
-        <f>H20-H29</f>
-        <v>1700</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" ref="I22:J22" si="7">I20-I29</f>
-        <v>3210</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="7"/>
-        <v>4090.5</v>
-      </c>
-      <c r="K22" s="35">
-        <f>K20-7050</f>
-        <v>7491</v>
-      </c>
-      <c r="L22" s="39">
-        <f>L20-7050</f>
-        <v>14761.5</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="38">
-        <f t="shared" ref="F23:K23" si="8">F22/F20</f>
-        <v>0.27419354838709681</v>
-      </c>
-      <c r="G23" s="38">
-        <f t="shared" si="8"/>
-        <v>0.27419354838709675</v>
-      </c>
-      <c r="H23" s="38">
-        <f t="shared" si="8"/>
-        <v>0.27419354838709675</v>
-      </c>
-      <c r="I23" s="38">
-        <f t="shared" si="8"/>
-        <v>0.39098660170523752</v>
-      </c>
-      <c r="J23" s="38">
-        <f t="shared" si="8"/>
-        <v>0.40538129924186117</v>
-      </c>
-      <c r="K23" s="38">
-        <f t="shared" si="8"/>
-        <v>0.51516401898081288</v>
-      </c>
-      <c r="L23" s="38">
-        <f>L22/L20</f>
-        <v>0.67677601265387521</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D24" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="41">
-        <f t="shared" ref="F24:H28" si="9">$K24*F$22/$K$22</f>
-        <v>171.10254527655414</v>
-      </c>
-      <c r="G24" s="41">
-        <f t="shared" si="9"/>
-        <v>366.64831130690163</v>
-      </c>
-      <c r="H24" s="41">
-        <f t="shared" si="9"/>
-        <v>586.63729809104257</v>
-      </c>
-      <c r="I24" s="41">
-        <f>$K24*I$22/$K$22</f>
-        <v>1107.7092511013216</v>
-      </c>
-      <c r="J24" s="41">
-        <f>$K24*J$22/$K$22</f>
-        <v>1411.5528634361233</v>
-      </c>
-      <c r="K24" s="41">
-        <f>K13-854</f>
-        <v>2585</v>
-      </c>
-      <c r="L24" s="41">
-        <f>K24*$L$22/$K$22</f>
-        <v>5093.9096916299559</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D25" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="41">
-        <f t="shared" si="9"/>
-        <v>69.89720998531574</v>
-      </c>
-      <c r="G25" s="41">
-        <f t="shared" si="9"/>
-        <v>149.77973568281939</v>
-      </c>
-      <c r="H25" s="41">
-        <f t="shared" si="9"/>
-        <v>239.647577092511</v>
-      </c>
-      <c r="I25" s="41">
-        <f t="shared" ref="I25:I28" si="10">$K25*I$22/$K$22</f>
-        <v>452.51101321585901</v>
-      </c>
-      <c r="J25" s="41">
-        <f t="shared" ref="J25:J28" si="11">$K25*J$22/$K$22</f>
-        <v>576.63436123348015</v>
-      </c>
-      <c r="K25" s="41">
-        <f>K14-1600</f>
-        <v>1056</v>
-      </c>
-      <c r="L25" s="41">
-        <f t="shared" ref="L25:L28" si="12">K25*$L$22/$K$22</f>
-        <v>2080.9162995594716</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D26" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="41">
-        <f t="shared" si="9"/>
-        <v>50.503381835980967</v>
-      </c>
-      <c r="G26" s="41">
-        <f t="shared" si="9"/>
-        <v>108.22153250567348</v>
-      </c>
-      <c r="H26" s="41">
-        <f t="shared" si="9"/>
-        <v>173.15445200907757</v>
-      </c>
-      <c r="I26" s="41">
-        <f t="shared" si="10"/>
-        <v>326.95634761714058</v>
-      </c>
-      <c r="J26" s="41">
-        <f t="shared" si="11"/>
-        <v>416.64016820184219</v>
-      </c>
-      <c r="K26" s="41">
-        <f>K16-659</f>
-        <v>763</v>
-      </c>
-      <c r="L26" s="41">
-        <f t="shared" si="12"/>
-        <v>1503.5408490188227</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D27" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="41">
-        <f t="shared" si="9"/>
-        <v>26.733603832840483</v>
-      </c>
-      <c r="G27" s="41">
-        <f t="shared" si="9"/>
-        <v>57.286293927515295</v>
-      </c>
-      <c r="H27" s="41">
-        <f t="shared" si="9"/>
-        <v>91.658070284024475</v>
-      </c>
-      <c r="I27" s="41">
-        <f t="shared" si="10"/>
-        <v>173.07200330101091</v>
-      </c>
-      <c r="J27" s="41">
-        <f t="shared" si="11"/>
-        <v>220.54549205694244</v>
-      </c>
-      <c r="K27" s="41">
-        <f>K15*K23</f>
-        <v>403.88859088095728</v>
-      </c>
-      <c r="L27" s="41">
-        <f t="shared" si="12"/>
-        <v>795.88859088095717</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D28" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="41">
-        <f t="shared" si="9"/>
-        <v>178.71445734881866</v>
-      </c>
-      <c r="G28" s="41">
-        <f t="shared" si="9"/>
-        <v>382.95955146175413</v>
-      </c>
-      <c r="H28" s="41">
-        <f t="shared" si="9"/>
-        <v>612.73528233880654</v>
-      </c>
-      <c r="I28" s="41">
-        <f t="shared" si="10"/>
-        <v>1156.988386063276</v>
-      </c>
-      <c r="J28" s="41">
-        <f t="shared" si="11"/>
-        <v>1474.3492190628754</v>
-      </c>
-      <c r="K28" s="41">
-        <f>K19</f>
-        <v>2700</v>
-      </c>
-      <c r="L28" s="41">
-        <f t="shared" si="12"/>
-        <v>5320.5246295554662</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="8">
-        <f>H29*$F$6/$H$6</f>
-        <v>1312.5</v>
-      </c>
-      <c r="G29" s="8">
-        <f>H29*$G$6/$H$6</f>
-        <v>2812.5</v>
-      </c>
-      <c r="H29" s="34">
-        <v>4500</v>
-      </c>
-      <c r="I29" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J29" s="8">
-        <v>6000</v>
-      </c>
-      <c r="K29" s="35">
-        <f>K20-K22</f>
-        <v>7050</v>
-      </c>
-      <c r="L29" s="39">
-        <f>L20-L22</f>
-        <v>7050</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="8">
-        <f>SUM(F12:F19)</f>
-        <v>1506.4583333333333</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" ref="G31:L31" si="13">SUM(G12:G19)</f>
-        <v>3228.125</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" si="13"/>
-        <v>5165</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="13"/>
-        <v>6657.5</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="13"/>
-        <v>7848</v>
-      </c>
-      <c r="K31" s="8">
-        <f t="shared" si="13"/>
-        <v>12419</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="13"/>
-        <v>18628.5</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="8">
-        <f>SUM(F11)</f>
-        <v>82.541666666666671</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" ref="G32:L32" si="14">SUM(G11)</f>
-        <v>176.875</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="14"/>
-        <v>283</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="14"/>
-        <v>424.5</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="14"/>
-        <v>613.16666666666663</v>
-      </c>
-      <c r="K32" s="8">
-        <f t="shared" si="14"/>
-        <v>558</v>
-      </c>
-      <c r="L32" s="8">
-        <f t="shared" si="14"/>
-        <v>837</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="8">
-        <f>F7</f>
-        <v>151.08333333333334</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" ref="G33:L33" si="15">G7</f>
-        <v>323.75</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="15"/>
-        <v>518</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="15"/>
-        <v>777</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="15"/>
-        <v>1122.3333333333333</v>
-      </c>
-      <c r="K33" s="8">
-        <f t="shared" si="15"/>
-        <v>1124</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="15"/>
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36">
-        <v>0.02</v>
-      </c>
-      <c r="L34" s="36"/>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36">
-        <v>0.17</v>
-      </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36">
-        <v>0.16</v>
-      </c>
-      <c r="L35" s="36"/>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="L36" s="36"/>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37">
-        <v>1.9</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37">
-        <v>1.3</v>
-      </c>
-      <c r="L38" s="37"/>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37">
-        <v>5.2</v>
-      </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37">
-        <v>6.3</v>
-      </c>
-      <c r="L39" s="37"/>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37">
-        <v>34.5</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37">
-        <v>39.9</v>
-      </c>
-      <c r="L40" s="37"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{104B7EC0-3364-4746-885F-9A6B6C0020CC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>